--- a/public/preprocessing/@putralifadillah.xlsx
+++ b/public/preprocessing/@putralifadillah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20873</v>
+        <v>24328</v>
       </c>
       <c r="C2" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cupang saja biar tarung</t>
+          <t>bejir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['cupang', 'saja', 'biar', 'tarung']</t>
+          <t>['bejir']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bejir']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['cupang', 'tarung']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['cupang', 'tarung']</t>
+          <t>['bejir']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['bejir']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20874</v>
+        <v>24329</v>
       </c>
       <c r="C3" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>omayyyygaattttt</t>
+          <t>iseng bat ngenssssss</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['omayyyygaattttt']</t>
+          <t>['iseng', 'bat', 'ngenssssss']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['iseng', 'banget', 'ngenssssss']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['omayyyygaattttt']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['omayyyygaattttt']</t>
+          <t>['iseng', 'banget', 'ngenssssss']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['iseng', 'banget', 'ngenssssss']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20875</v>
+        <v>24330</v>
       </c>
       <c r="C4" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>butuh inspirasi nih dari secangkir kopi</t>
+          <t xml:space="preserve"> busehhhhhh indyyyy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['butuh', 'inspirasi', 'nih', 'dari', 'secangkir', 'kopi']</t>
+          <t>['busehhhhhh', 'indyyyy']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['busehhhhhh', 'indyyyy']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['butuh', 'inspirasi', 'secangkir', 'kopi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['butuh', 'inspirasi', 'cangkir', 'kopi']</t>
+          <t>['busehhhhhh', 'indyyyy']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['busehhhhhh', 'indyyyy']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20876</v>
+        <v>24331</v>
       </c>
       <c r="C5" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>yah ajg animeindo bangsat random dong episode nya ga ngurut tai gajelas</t>
+          <t>emang dasar nya udah lucuuu mpen bolehkah aku</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['yah', 'ajg', 'animeindo', 'bangsat', 'random', 'dong', 'episode', 'nya', 'ga', 'ngurut', 'tai', 'gajelas']</t>
+          <t>['emang', 'dasar', 'nya', 'udah', 'lucuuu', 'mpen', 'bolehkah', 'aku']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['memang', 'dasar', 'nya', 'sudah', 'lucu', 'mpen', 'bolehkah', 'aku']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['ajg', 'animeindo', 'bangsat', 'random', 'episode', 'ngurut', 'tai', 'gajelas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['ajg', 'animeindo', 'bangsat', 'random', 'episode', 'ngurut', 'tai', 'gajelas']</t>
+          <t>['dasar', 'lucu', 'mpen']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['dasar', 'lucu', 'mpen']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20877</v>
+        <v>24332</v>
       </c>
       <c r="C6" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>baru mau qrt gini sad</t>
+          <t>asli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['baru', 'mau', 'qrt', 'gini', 'sad']</t>
+          <t>['asli']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['asli']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['qrt', 'gini', 'sad']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['qrt', 'gin', 'sad']</t>
+          <t>['asli']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['asli']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20878</v>
+        <v>24333</v>
       </c>
       <c r="C7" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>anak nyaiii nih</t>
+          <t>gua masih jadi buronan tukang laundry  ya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['anak', 'nyaiii', 'nih']</t>
+          <t>['gua', 'masih', 'jadi', 'buronan', 'tukang', 'laundry', 'ya']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['gue', 'masih', 'jadi', 'buronan', 'tukang', 'laundry', 'ya']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['anak', 'nyaiii']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['anak', 'nyaiii']</t>
+          <t>['gue', 'buronan', 'tukang', 'laundry']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['gue', 'buron', 'tukang', 'laundry']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20879</v>
+        <v>24334</v>
       </c>
       <c r="C8" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>keren</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['keren']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['keren']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['keren']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['keren']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20880</v>
+        <v>24335</v>
       </c>
       <c r="C9" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ini ngetik latar belakang referensi nya dari mana ya biar tau step nya jga</t>
+          <t>gils</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['ini', 'ngetik', 'latar', 'belakang', 'referensi', 'nya', 'dari', 'mana', 'ya', 'biar', 'tau', 'step', 'nya', 'jga']</t>
+          <t>['gils']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['gila']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['ngetik', 'latar', 'referensi', 'step', 'jga']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['ngetik', 'latar', 'referensi', 'step', 'jga']</t>
+          <t>['gila']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['gila']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20881</v>
+        <v>24336</v>
       </c>
       <c r="C10" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>akirnya ada yg post ajg</t>
+          <t>pada suatu hari</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['akirnya', 'ada', 'yg', 'post', 'ajg']</t>
+          <t>['pada', 'suatu', 'hari']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pada', 'suatu', 'hari']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['akirnya', 'post', 'ajg']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['akirnya', 'post', 'ajg']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20882</v>
+        <v>24337</v>
       </c>
       <c r="C11" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>wkwkwkwk</t>
+          <t>rt jkt finally</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['wkwkwkwk']</t>
+          <t>['rt', 'jkt', 'finally']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'finally']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['wkwkwkwk']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['wkwkwkwk']</t>
+          <t>['jakarta', 'finally']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['jakarta', 'finally']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20883</v>
+        <v>24338</v>
       </c>
       <c r="C12" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>untung bangun cepet</t>
+          <t>jir tamat lagi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['untung', 'bangun', 'cepet']</t>
+          <t>['jir', 'tamat', 'lagi']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['jir', 'tamat', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['untung', 'bangun', 'cepet']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['untung', 'bangun', 'cepet']</t>
+          <t>['jir', 'tamat']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['jir', 'tamat']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20884</v>
+        <v>24339</v>
       </c>
       <c r="C13" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>wkwkwk saya masih punya amunisi</t>
+          <t>welcome yantot</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'saya', 'masih', 'punya', 'amunisi']</t>
+          <t>['welcome', 'yantot']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['welcome', 'yantot']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'amunisi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'amunisi']</t>
+          <t>['welcome', 'yantot']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['welcome', 'yantot']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20885</v>
+        <v>24340</v>
       </c>
       <c r="C14" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>hahahahahaha</t>
+          <t>muka  kek aldo anyink</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['hahahahahaha']</t>
+          <t>['muka', 'kek', 'aldo', 'anyink']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['muka', 'kayak', 'aldo', 'anyink']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['hahahahahaha']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['hahahahahaha']</t>
+          <t>['muka', 'kayak', 'aldo', 'anyink']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['muka', 'kayak', 'aldo', 'anyink']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20886</v>
+        <v>24341</v>
       </c>
       <c r="C15" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>tarung</t>
+          <t>asik ke korea</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['tarung']</t>
+          <t>['asik', 'ke', 'korea']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['asyik', 'ke', 'korea']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['tarung']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['tarung']</t>
+          <t>['asyik', 'korea']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['asyik', 'korea']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,35 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20887</v>
+        <v>24342</v>
       </c>
       <c r="C16" t="n">
-        <v>253</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>goku vs majin vegeta</t>
-        </is>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['goku', 'vs', 'majin', 'vegeta']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['goku', 'vs', 'majin', 'vegeta']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['goku', 'vs', 'majin', 'vegeta']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20888</v>
+        <v>24343</v>
       </c>
       <c r="C17" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>iya betul yg itu gua klo itu udahh sih wkwkwk kebalikan</t>
+          <t>anjing keceeeee banget</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['iya', 'betul', 'yg', 'itu', 'gua', 'klo', 'itu', 'udahh', 'sih', 'wkwkwk', 'kebalikan']</t>
+          <t>['anjing', 'keceeeee', 'banget']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['anjing', 'keceeeee', 'banget']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['iya', 'gua', 'udahh', 'wkwkwk', 'kebalikan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['iya', 'gua', 'udahh', 'wkwkwk', 'balik']</t>
+          <t>['anjing', 'keceeeee', 'banget']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['anjing', 'keceeeee', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20889</v>
+        <v>24344</v>
       </c>
       <c r="C18" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>klo sama mie sedap spicy masih pedesaan mana kira dil</t>
+          <t>ultah tiap hari</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['klo', 'sama', 'mie', 'sedap', 'spicy', 'masih', 'pedesaan', 'mana', 'kira', 'dil']</t>
+          <t>['ultah', 'tiap', 'hari']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['ulang, tahun', 'tiap', 'hari']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['mie', 'sedap', 'spicy', 'pedesaan', 'dil']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['mie', 'sedap', 'spicy', 'desa', 'dil']</t>
+          <t>['ulang, tahun']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['ulang tahun']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20890</v>
+        <v>24345</v>
       </c>
       <c r="C19" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>awkaowkakwo</t>
+          <t>rt stress</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['awkaowkakwo']</t>
+          <t>['rt', 'stress']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'stres']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['awkaowkakwo']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['awkaowkakwo']</t>
+          <t>['stres']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['stres']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20891</v>
+        <v>24346</v>
       </c>
       <c r="C20" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>betul betul betul</t>
+          <t>emang biji sesungguhnya lu ama apis alias hbd pannn</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['betul', 'betul', 'betul']</t>
+          <t>['emang', 'biji', 'sesungguhnya', 'lu', 'ama', 'apis', 'alias', 'hbd', 'pannn']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 3 outcomes&gt;</t>
+          <t>['memang', 'biji', 'sesungguhnya', 'kamu', 'sama', 'apis', 'alias', 'selamat, ulang, tahun', 'pannn']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['biji', 'sesungguhnya', 'apis', 'alias', 'selamat, ulang, tahun', 'pannn']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['biji', 'sungguh', 'apis', 'alias', 'selamat ulang tahun', 'pannn']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20892</v>
+        <v>24347</v>
       </c>
       <c r="C21" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sok asik</t>
+          <t>goku ultra instinct</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['sok', 'asik']</t>
+          <t>['goku', 'ultra', 'instinct']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['goku', 'ultra', 'instinct']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['sok', 'asik']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['sok', 'asik']</t>
+          <t>['goku', 'ultra', 'instinct']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['goku', 'ultra', 'instinct']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20893</v>
+        <v>24348</v>
       </c>
       <c r="C22" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>dari ome nya fiki juga lookit aja ig ny</t>
+          <t>glorio kampret dahh malem malem wkwkwkwkwkwkwkkwkw</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['dari', 'ome', 'nya', 'fiki', 'juga', 'lookit', 'aja', 'ig', 'ny']</t>
+          <t>['glorio', 'kampret', 'dahh', 'malem', 'malem', 'wkwkwkwkwkwkwkkwkw']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['glorio', 'kampret', 'dah', 'malam', 'malam', 'wkwkwkwkwkwkwkkwkw']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['ome', 'fiki', 'lookit', 'ig']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['ome', 'fiki', 'lookit', 'ig']</t>
+          <t>['glorio', 'kampret', 'dah', 'malam', 'malam', 'wkwkwkwkwkwkwkkwkw']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['glorio', 'kampret', 'dah', 'malam', 'malam', 'wkwkwkwkwkwkwkkwkw']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20894</v>
+        <v>24349</v>
       </c>
       <c r="C23" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt when  belajar mobil manual tibatiba mati di tengah jalan trs diklaksonin seluruh umat dari belakang</t>
+          <t>ihh gilaa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'when', 'belajar', 'mobil', 'manual', 'tibatiba', 'mati', 'di', 'tengah', 'jalan', 'trs', 'diklaksonin', 'seluruh', 'umat', 'dari', 'belakang']</t>
+          <t>['ihh', 'gilaa']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['ih', 'gila']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['when', 'belajar', 'mobil', 'manual', 'tibatiba', 'mati', 'jalan', 'trs', 'diklaksonin', 'umat']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['when', 'ajar', 'mobil', 'manual', 'tibatiba', 'mati', 'jalan', 'trs', 'diklaksonin', 'umat']</t>
+          <t>['ih', 'gila']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['ih', 'gila']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20895</v>
+        <v>24350</v>
       </c>
       <c r="C24" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt yeet</t>
+          <t>masih diliatin ama bos orang yang kayak gitu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'yeet']</t>
+          <t>['masih', 'diliatin', 'ama', 'bos', 'orang', 'yang', 'kayak', 'gitu']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['masih', 'dilihat', 'sama', 'bos', 'orang', 'yang', 'kayak', 'begitu']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['yeet']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['yeet']</t>
+          <t>['bos', 'orang', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['bos', 'orang', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20896</v>
+        <v>24351</v>
       </c>
       <c r="C25" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>betul mending danie groves</t>
+          <t>rt  pov</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['betul', 'mending', 'danie', 'groves']</t>
+          <t>['rt', 'pov']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'pov']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['mending', 'danie', 'groves']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['mending', 'danie', 'groves']</t>
+          <t>['pov']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['pov']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20897</v>
+        <v>24352</v>
       </c>
       <c r="C26" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>otw buu saga</t>
+          <t>indy ratna</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['otw', 'buu', 'saga']</t>
+          <t>['indy', 'ratna']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['indy', 'ratna']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['otw', 'buu', 'saga']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['otw', 'buu', 'saga']</t>
+          <t>['indy', 'ratna']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['indy', 'ratna']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20898</v>
+        <v>24353</v>
       </c>
       <c r="C27" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>nanti klo dah cair bareng sekalian</t>
+          <t>mirajkt ollajkt jir</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['nanti', 'klo', 'dah', 'cair', 'bareng', 'sekalian']</t>
+          <t>['mirajkt', 'ollajkt', 'jir']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['mirajkt', 'ollajkt', 'jir']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['dah', 'cair', 'bareng']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['dah', 'cair', 'bareng']</t>
+          <t>['mirajkt', 'ollajkt', 'jir']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['mirajkt', 'ollajkt', 'jir']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20899</v>
+        <v>24354</v>
       </c>
       <c r="C28" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>jgnn</t>
+          <t>weeehhh shahar sayang banget ituuuu pdahal klo ga dipinjemin</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['jgnn']</t>
+          <t>['weeehhh', 'shahar', 'sayang', 'banget', 'ituuuu', 'pdahal', 'klo', 'ga', 'dipinjemin']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['weeehhh', 'shahar', 'sayang', 'banget', 'ituuuu', 'padahal', 'kalau', 'tidak', 'dipinjemin']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['jgnn']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['jgnn']</t>
+          <t>['weeehhh', 'shahar', 'sayang', 'banget', 'ituuuu', 'dipinjemin']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['weeehhh', 'shahar', 'sayang', 'banget', 'ituuuu', 'dipinjemin']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20900</v>
+        <v>24355</v>
       </c>
       <c r="C29" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>arajkt mirajkt jaga yaaaa</t>
+          <t>hampir habis tuh ruang penyimpanan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['arajkt', 'mirajkt', 'jaga', 'yaaaa']</t>
+          <t>['hampir', 'habis', 'tuh', 'ruang', 'penyimpanan']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['hampir', 'habis', 'itu', 'ruang', 'penyimpanan']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['arajkt', 'mirajkt', 'jaga', 'yaaaa']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['arajkt', 'mirajkt', 'jaga', 'yaaaa']</t>
+          <t>['habis', 'ruang', 'penyimpanan']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['habis', 'ruang', 'simpan']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20901</v>
+        <v>24356</v>
       </c>
       <c r="C30" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>arajkt mirajkt betul</t>
+          <t>kale super saiyan</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['arajkt', 'mirajkt', 'betul']</t>
+          <t>['kale', 'super', 'saiyan']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['kali', 'super', 'saiyan']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['arajkt', 'mirajkt']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['arajkt', 'mirajkt']</t>
+          <t>['kali', 'super', 'saiyan']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['kali', 'super', 'saiyan']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20902</v>
+        <v>24357</v>
       </c>
       <c r="C31" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>romannya gaji magang tahun lalu mau cair nih semoga saja</t>
+          <t>kena mental sabar kak</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['romannya', 'gaji', 'magang', 'tahun', 'lalu', 'mau', 'cair', 'nih', 'semoga', 'saja']</t>
+          <t>['kena', 'mental', 'sabar', 'kak']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kena', 'mental', 'sabar', 'kak']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['romannya', 'gaji', 'magang', 'cair', 'semoga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['roman', 'gaji', 'magang', 'cair', 'moga']</t>
+          <t>['kena', 'mental', 'sabar', 'kak']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kena', 'mental', 'sabar', 'kak']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20903</v>
+        <v>24358</v>
       </c>
       <c r="C32" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>di counter attack dong yg kemaren</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['di', 'counter', 'attack', 'dong', 'yg', 'kemaren']</t>
+          <t>['sad']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['sad']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['counter', 'attack', 'kemaren']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['counter', 'attack', 'kemaren']</t>
+          <t>['sad']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['sad']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20904</v>
+        <v>24359</v>
       </c>
       <c r="C33" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>awal saya tahu klub luar indog</t>
+          <t>goku vs gohan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['awal', 'saya', 'tahu', 'klub', 'luar', 'indog']</t>
+          <t>['goku', 'vs', 'gohan']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['goku', 'lawan', 'gohan']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['klub', 'indog']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['klub', 'indog']</t>
+          <t>['goku', 'lawan', 'gohan']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['goku', 'lawan', 'gohan']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20905</v>
+        <v>24360</v>
       </c>
       <c r="C34" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>apalagi maen cf pharaoh lu kal</t>
+          <t>plerdiiii selamat hari berojolllll makin goks dah pokoknya</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['apalagi', 'maen', 'cf', 'pharaoh', 'lu', 'kal']</t>
+          <t>['plerdiiii', 'selamat', 'hari', 'berojolllll', 'makin', 'goks', 'dah', 'pokoknya']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['plerdiiii', 'selamat', 'hari', 'berojolllll', 'makin', 'goks', 'sudah', 'pokoknya']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['maen', 'cf', 'pharaoh', 'lu', 'kal']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['maen', 'cf', 'pharaoh', 'lu', 'kal']</t>
+          <t>['plerdiiii', 'selamat', 'berojolllll', 'goks', 'pokoknya']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['plerdiiii', 'selamat', 'berojolllll', 'goks', 'pokok']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20906</v>
+        <v>24361</v>
       </c>
       <c r="C35" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt kpop fans complaining about their groups getting region blocked on spotify jpop fans</t>
+          <t>gokil spill</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'kpop', 'fans', 'complaining', 'about', 'their', 'groups', 'getting', 'region', 'blocked', 'on', 'spotify', 'jpop', 'fans']</t>
+          <t>['gokil', 'spill']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['gila', 'spill']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['kpop', 'fans', 'complaining', 'about', 'their', 'groups', 'getting', 'region', 'blocked', 'on', 'spotify', 'jpop', 'fans']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['kpop', 'fans', 'complaining', 'about', 'their', 'groups', 'getting', 'region', 'blocked', 'on', 'spotify', 'jpop', 'fans']</t>
+          <t>['gila', 'spill']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['gila', 'spill']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20907</v>
+        <v>24362</v>
       </c>
       <c r="C36" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>tenkaichi budokai</t>
+          <t>manteb ultra instinct udah dispill di episode</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['tenkaichi', 'budokai']</t>
+          <t>['manteb', 'ultra', 'instinct', 'udah', 'dispill', 'di', 'episode']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['mantap', 'ultra', 'instinct', 'sudah', 'dispill', 'di', 'episode']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['tenkaichi', 'budokai']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['tenkaichi', 'budokai']</t>
+          <t>['mantap', 'ultra', 'instinct', 'dispill', 'episode']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['mantap', 'ultra', 'instinct', 'dispill', 'episode']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20908</v>
+        <v>24363</v>
       </c>
       <c r="C37" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>makin tua makin jadi</t>
+          <t>paramarta asik semprot</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['makin', 'tua', 'makin', 'jadi']</t>
+          <t>['paramarta', 'asik', 'semprot']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['paramarta', 'asyik', 'semprot']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['tua']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['tua']</t>
+          <t>['paramarta', 'asyik', 'semprot']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['paramarta', 'asyik', 'semprot']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20909</v>
+        <v>24364</v>
       </c>
       <c r="C38" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>asik bentar lagi makin tua</t>
+          <t>wkwkwkwkwk</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['asik', 'bentar', 'lagi', 'makin', 'tua']</t>
+          <t>['wkwkwkwkwk']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['wkwk']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['asik', 'bentar', 'tua']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['asik', 'bentar', 'tua']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20910</v>
+        <v>24365</v>
       </c>
       <c r="C39" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>oala janco aliansi klan piso indo ternyata</t>
+          <t>kal kal</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['oala', 'janco', 'aliansi', 'klan', 'piso', 'indo', 'ternyata']</t>
+          <t>['kal', 'kal']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kal', 'kal']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['oala', 'janco', 'aliansi', 'klan', 'piso', 'indo']</t>
+          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['oala', 'janco', 'aliansi', 'klan', 'piso', 'indo']</t>
+          <t>['kal', 'kal']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['kal', 'kal']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20911</v>
+        <v>24366</v>
       </c>
       <c r="C40" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>wkwkwkwk bgzd baru liat lagi</t>
+          <t>baseball match</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['wkwkwkwk', 'bgzd', 'baru', 'liat', 'lagi']</t>
+          <t>['baseball', 'match']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['baseball', 'match']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['wkwkwkwk', 'bgzd', 'liat']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['wkwkwkwk', 'bgzd', 'liat']</t>
+          <t>['baseball', 'match']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['baseball', 'match']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20912</v>
+        <v>24367</v>
       </c>
       <c r="C41" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ameljkt idiiii segalanya ga tuuu</t>
+          <t>makanya ri belajar</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['ameljkt', 'idiiii', 'segalanya', 'ga', 'tuuu']</t>
+          <t>['makanya', 'ri', 'belajar']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['makanya', 'ri', 'belajar']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['ameljkt', 'idiiii', 'tuuu']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['ameljkt', 'idiiii', 'tuuu']</t>
+          <t>['ri', 'belajar']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['ri', 'ajar']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20913</v>
+        <v>24368</v>
       </c>
       <c r="C42" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>saya tahu ini admin siapa</t>
+          <t>wkwkwkwkkwwk</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['saya', 'tahu', 'ini', 'admin', 'siapa']</t>
+          <t>['wkwkwkwkkwwk']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['wkwkwkwkkwwk']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['admin']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['admin']</t>
+          <t>['wkwkwkwkkwwk']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['wkwkwkwkkwwk']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20914</v>
+        <v>24369</v>
       </c>
       <c r="C43" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>sempetnya diundang ke grup great melee player di wa pas saya lihat benar player piso handal di cf indo semwaaaa</t>
+          <t>awalnya tanbus keknya ri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['sempetnya', 'diundang', 'ke', 'grup', 'great', 'melee', 'player', 'di', 'wa', 'pas', 'saya', 'lihat', 'benar', 'player', 'piso', 'handal', 'di', 'cf', 'indo', 'semwaaaa']</t>
+          <t>['awalnya', 'tanbus', 'keknya', 'ri']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['awalnya', 'tanbus', 'sepertinya', 'ri']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['sempetnya', 'diundang', 'grup', 'great', 'melee', 'player', 'wa', 'pas', 'lihat', 'player', 'piso', 'handal', 'cf', 'indo', 'semwaaaa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['sempetnya', 'undang', 'grup', 'great', 'melee', 'player', 'wa', 'pas', 'lihat', 'player', 'piso', 'handal', 'cf', 'indo', 'semwaaaa']</t>
+          <t>['tanbus', 'ri']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['tanbus', 'ri']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20915</v>
+        <v>24370</v>
       </c>
       <c r="C44" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>gohan masuk sma</t>
+          <t>kapan pun bisa tapi punya gua udah agak kusam dan noda nya hahahaha</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['gohan', 'masuk', 'sma']</t>
+          <t>['kapan', 'pun', 'bisa', 'tapi', 'punya', 'gua', 'udah', 'agak', 'kusam', 'dan', 'noda', 'nya', 'hahahaha']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kapan', 'pun', 'bisa', 'tapi', 'punya', 'gue', 'sudah', 'agak', 'kusam', 'dan', 'noda', 'nya', 'haha']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['gohan', 'masuk', 'sma']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['gohan', 'masuk', 'sma']</t>
+          <t>['gue', 'kusam', 'noda', 'haha']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['gue', 'kusam', 'noda', 'haha']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20916</v>
+        <v>24371</v>
       </c>
       <c r="C45" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>adu kameha meha</t>
+          <t>rt uish ni kerajaan ayah pin tengah bina istana kayangan ke apa</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['adu', 'kameha', 'meha']</t>
+          <t>['rt', 'uish', 'ni', 'kerajaan', 'ayah', 'pin', 'tengah', 'bina', 'istana', 'kayangan', 'ke', 'apa']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'uish', 'nih', 'kerajaan', 'ayah', 'pin', 'tengah', 'bina', 'istana', 'kayangan', 'ke', 'apa']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['adu', 'kameha', 'meha']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['adu', 'kameha', 'meha']</t>
+          <t>['uish', 'kerajaan', 'ayah', 'pin', 'bina', 'istana', 'kayangan']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['uish', 'raja', 'ayah', 'pin', 'bina', 'istana', 'kayangan']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20917</v>
+        <v>24372</v>
       </c>
       <c r="C46" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>wkwkwkwkwkwkw baburuss kunn comelllll</t>
+          <t>btw baju yg waktu itu sama kyk gua masih ada bar</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwkwkw', 'baburuss', 'kunn', 'comelllll']</t>
+          <t>['btw', 'baju', 'yg', 'waktu', 'itu', 'sama', 'kyk', 'gua', 'masih', 'ada', 'bar']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['by, the, way', 'baju', 'yang', 'waktu', 'itu', 'sama', 'kayak', 'gue', 'masih', 'ada', 'bar']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwkwkw', 'baburuss', 'kunn', 'comelllll']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwkwkw', 'baburuss', 'kunn', 'comelllll']</t>
+          <t>['by, the, way', 'baju', 'kayak', 'gue', 'bar']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['by the way', 'baju', 'kayak', 'gue', 'bar']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20918</v>
+        <v>24373</v>
       </c>
       <c r="C47" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt riky purnama</t>
+          <t>rt jkt our jakarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'riky', 'purnama']</t>
+          <t>['rt', 'jkt', 'our', 'jakarta']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'our', 'jakarta']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['riky', 'purnama']</t>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['riky', 'purnama']</t>
+          <t>['jakarta', 'our', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['jakarta', 'our', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20919</v>
+        <v>24374</v>
       </c>
       <c r="C48" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>gils</t>
+          <t>buset</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['gils']</t>
+          <t>['buset']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['buset']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['gils']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['gils']</t>
+          <t>['buset']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['buset']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20920</v>
+        <v>24375</v>
       </c>
       <c r="C49" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>pedang bokap lu bagi atu</t>
+          <t>ini arc tournament of power mulai dari episode brp yyyy</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['pedang', 'bokap', 'lu', 'bagi', 'atu']</t>
+          <t>['ini', 'arc', 'tournament', 'of', 'power', 'mulai', 'dari', 'episode', 'brp', 'yyyy']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ini', 'arc', 'tournament', 'of', 'power', 'mulai', 'dari', 'episode', 'berapa', 'yyyy']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['pedang', 'bokap', 'lu', 'atu']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['pedang', 'bokap', 'lu', 'atu']</t>
+          <t>['arc', 'tournament', 'of', 'power', 'episode', 'yyyy']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['arc', 'tournament', 'of', 'power', 'episode', 'yyyy']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20921</v>
+        <v>24376</v>
       </c>
       <c r="C50" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>saya langsung teringat bioma yang ada di minikrep</t>
+          <t>rt illuminati</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['saya', 'langsung', 'teringat', 'bioma', 'yang', 'ada', 'di', 'minikrep']</t>
+          <t>['rt', 'illuminati']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'illuminati']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['langsung', 'bioma', 'minikrep']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['langsung', 'bioma', 'minikrep']</t>
+          <t>['illuminati']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['illuminati']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20922</v>
+        <v>24377</v>
       </c>
       <c r="C51" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>anda ngangkang fix hp jatoh</t>
+          <t>setelah episode</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['anda', 'ngangkang', 'fix', 'hp', 'jatoh']</t>
+          <t>['setelah', 'episode']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['setelah', 'episode']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['ngangkang', 'fix', 'hp', 'jatoh']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['ngangkang', 'fix', 'hp', 'jatoh']</t>
+          <t>['episode']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['episode']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20923</v>
+        <v>24378</v>
       </c>
       <c r="C52" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">orang salam malah diketawain gua juga ketawa lagi ajg la </t>
+          <t>wkwkwk</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['orang', 'salam', 'malah', 'diketawain', 'gua', 'juga', 'ketawa', 'lagi', 'ajg', 'la']</t>
+          <t>['wkwkwk']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['wkwk']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['orang', 'salam', 'diketawain', 'gua', 'ketawa', 'ajg', 'la']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['orang', 'salam', 'diketawain', 'gua', 'ketawa', 'ajg', 'la']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20924</v>
+        <v>24379</v>
       </c>
       <c r="C53" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>hbddd braderrr</t>
+          <t>indy boleh kah aku</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['hbddd', 'braderrr']</t>
+          <t>['indy', 'boleh', 'kah', 'aku']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['indy', 'boleh', 'kah', 'aku']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['hbddd', 'braderrr']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['hbddd', 'braderrr']</t>
+          <t>['indy', 'kah']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['indy', 'kah']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20925</v>
+        <v>24380</v>
       </c>
       <c r="C54" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>padahal tinggal buat tugas lagi tapi mager nya minta ampun</t>
+          <t>gua discord cuman dengerin haikal toxic lip lip</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['padahal', 'tinggal', 'buat', 'tugas', 'lagi', 'tapi', 'mager', 'nya', 'minta', 'ampun']</t>
+          <t>['gua', 'discord', 'cuman', 'dengerin', 'haikal', 'toxic', 'lip', 'lip']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['gue', 'discord', 'cuma', 'dengarkan', 'haikal', 'toxic', 'lip', 'lip']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['tinggal', 'tugas', 'mager', 'ampun']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['tinggal', 'tugas', 'mager', 'ampun']</t>
+          <t>['gue', 'discord', 'dengarkan', 'haikal', 'toxic', 'lip', 'lip']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['gue', 'discord', 'dengar', 'haikal', 'toxic', 'lip', 'lip']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20926</v>
+        <v>24381</v>
       </c>
       <c r="C55" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt chef juna sewaktu abis pubertas</t>
+          <t>lebih paham gua jadinya heran</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'chef', 'juna', 'sewaktu', 'abis', 'pubertas']</t>
+          <t>['lebih', 'paham', 'gua', 'jadinya', 'heran']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['lebih', 'paham', 'gue', 'jadinya', 'heran']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['chef', 'juna', 'abis', 'pubertas']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['chef', 'juna', 'abis', 'pubertas']</t>
+          <t>['paham', 'gue', 'heran']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['paham', 'gue', 'heran']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20927</v>
+        <v>24382</v>
       </c>
       <c r="C56" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>starling</t>
+          <t>masgon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['starling']</t>
+          <t>['masgon']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['masgon']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['starling']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['starling']</t>
+          <t>['masgon']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['masgon']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20928</v>
+        <v>24383</v>
       </c>
       <c r="C57" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>cell junior</t>
+          <t>nyawa gua bakalan berkurang di jeketi lip kalo ci shani cabut nopalkun</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['cell', 'junior']</t>
+          <t>['nyawa', 'gua', 'bakalan', 'berkurang', 'di', 'jeketi', 'lip', 'kalo', 'ci', 'shani', 'cabut', 'nopalkun']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['nyawa', 'gue', 'akan', 'berkurang', 'di', 'jakarta', 'lip', 'kalau', 'ci', 'shani', 'pergi', 'nopalkun']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['cell', 'junior']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['cell', 'junior']</t>
+          <t>['nyawa', 'gue', 'berkurang', 'jakarta', 'lip', 'ci', 'shani', 'pergi', 'nopalkun']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['nyawa', 'gue', 'kurang', 'jakarta', 'lip', 'ci', 'shani', 'pergi', 'nopalkun']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20929</v>
+        <v>24384</v>
       </c>
       <c r="C58" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gagitu konsepnya yaaaaaaaaa</t>
+          <t>goku vs black goku</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['gagitu', 'konsepnya', 'yaaaaaaaaa']</t>
+          <t>['goku', 'vs', 'black', 'goku']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['goku', 'lawan', 'black', 'goku']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['gagitu', 'konsepnya', 'yaaaaaaaaa']</t>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['gagitu', 'konsep', 'yaaaaaaaaa']</t>
+          <t>['goku', 'lawan', 'black', 'goku']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['goku', 'lawan', 'black', 'goku']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20930</v>
+        <v>24385</v>
       </c>
       <c r="C59" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>alhamdulillah doi lengah saya comot biji dari kulkas</t>
+          <t>rt informasi lainnya mana bg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'doi', 'lengah', 'saya', 'comot', 'biji', 'dari', 'kulkas']</t>
+          <t>['rt', 'informasi', 'lainnya', 'mana', 'bg']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'informasi', 'lainnya', 'mana', 'bagi']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'doi', 'lengah', 'comot', 'biji', 'kulkas']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'doi', 'lengah', 'comot', 'biji', 'kulkas']</t>
+          <t>['informasi']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['informasi']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20931</v>
+        <v>24386</v>
       </c>
       <c r="C60" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>aldy kampret bat dah wkwkwkwkwk</t>
+          <t>rt yeet</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['aldy', 'kampret', 'bat', 'dah', 'wkwkwkwkwk']</t>
+          <t>['rt', 'yeet']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'yeet']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['aldy', 'kampret', 'bat', 'dah', 'wkwkwkwkwk']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['aldy', 'kampret', 'bat', 'dah', 'wkwkwkwkwk']</t>
+          <t>['yeet']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['yeet']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20932</v>
+        <v>24387</v>
       </c>
       <c r="C61" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ternyata anda bokap saya</t>
+          <t>rt still thinking about this</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['ternyata', 'anda', 'bokap', 'saya']</t>
+          <t>['rt', 'still', 'thinking', 'about', 'this']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'still', 'thinking', 'about', 'this']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['bokap']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['bokap']</t>
+          <t>['still', 'thinking', 'about', 'this']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['still', 'thinking', 'about', 'this']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20933</v>
+        <v>24388</v>
       </c>
       <c r="C62" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">bokap gua asal beli martabak gapernah nawarin samsek asal gua yg beli martabak ngomong nya emang kamu abis itu </t>
+          <t>jus belimbing enak juga</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['bokap', 'gua', 'asal', 'beli', 'martabak', 'gapernah', 'nawarin', 'samsek', 'asal', 'gua', 'yg', 'beli', 'martabak', 'ngomong', 'nya', 'emang', 'kamu', 'abis', 'itu']</t>
+          <t>['jus', 'belimbing', 'enak', 'juga']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['jus', 'belimbing', 'enak', 'juga']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['bokap', 'gua', 'beli', 'martabak', 'gapernah', 'nawarin', 'samsek', 'gua', 'beli', 'martabak', 'ngomong', 'emang', 'abis']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['bokap', 'gua', 'beli', 'martabak', 'gapernah', 'nawarin', 'samsek', 'gua', 'beli', 'martabak', 'ngomong', 'emang', 'abis']</t>
+          <t>['jus', 'belimbing', 'enak']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['jus', 'belimbing', 'enak']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2977,35 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20934</v>
+        <v>24389</v>
       </c>
       <c r="C63" t="n">
-        <v>253</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>itu ditengah sapa ikut narsis</t>
-        </is>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['itu', 'ditengah', 'sapa', 'ikut', 'narsis']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['ditengah', 'sapa', 'narsis']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['tengah', 'sapa', 'narsis']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3014,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20935</v>
+        <v>24390</v>
       </c>
       <c r="C64" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>akun asli masih kopong eh udah bikin akun smurf aja buat nyamar yang punya akun asli sekaligus smurf yang udah</t>
+          <t>knp  kerumah jahri</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['akun', 'asli', 'masih', 'kopong', 'eh', 'udah', 'bikin', 'akun', 'smurf', 'aja', 'buat', 'nyamar', 'yang', 'punya', 'akun', 'asli', 'sekaligus', 'smurf', 'yang', 'udah']</t>
+          <t>['knp', 'kerumah', 'jahri']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 20 outcomes&gt;</t>
+          <t>['kenapa', 'ke, rumah', 'jahri']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['akun', 'asli', 'kopong', 'eh', 'udah', 'akun', 'smurf', 'nyamar', 'akun', 'asli', 'smurf', 'udah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['akun', 'asli', 'kopong', 'eh', 'udah', 'akun', 'smurf', 'nyamar', 'akun', 'asli', 'smurf', 'udah']</t>
+          <t>['ke, rumah', 'jahri']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['ke rumah', 'jahri']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3055,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20936</v>
+        <v>24391</v>
       </c>
       <c r="C65" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>wkakwkakw</t>
+          <t>anjrot</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['wkakwkakw']</t>
+          <t>['anjrot']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['anjrot']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['wkakwkakw']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['wkakwkakw']</t>
+          <t>['anjrot']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['anjrot']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3096,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20937</v>
+        <v>24392</v>
       </c>
       <c r="C66" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt perbanyak nyengir kurangi nyinyir</t>
+          <t>betul</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'perbanyak', 'nyengir', 'kurangi', 'nyinyir']</t>
+          <t>['betul']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['betul']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['perbanyak', 'nyengir', 'kurangi', 'nyinyir']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['banyak', 'nyengir', 'kurang', 'nyinyir']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3137,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20938</v>
+        <v>24393</v>
       </c>
       <c r="C67" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>gatau sih tapi kalo secara brandnya ritzcarlton kuningan ama jw marriott masih bagusan jw marriott</t>
+          <t>rt wanda maximoff islam aku liat sendiri dia pake jilbab</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['gatau', 'sih', 'tapi', 'kalo', 'secara', 'brandnya', 'ritzcarlton', 'kuningan', 'ama', 'jw', 'marriott', 'masih', 'bagusan', 'jw', 'marriott']</t>
+          <t>['rt', 'wanda', 'maximoff', 'islam', 'aku', 'liat', 'sendiri', 'dia', 'pake', 'jilbab']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'wanda', 'maximoff', 'islam', 'aku', 'lihat', 'sendiri', 'dia', 'pakai', 'jilbab']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['gatau', 'brandnya', 'ritzcarlton', 'kuningan', 'ama', 'jw', 'marriott', 'bagusan', 'jw', 'marriott']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['gatau', 'brandnya', 'ritzcarlton', 'kuningan', 'ama', 'jw', 'marriott', 'bagus', 'jw', 'marriott']</t>
+          <t>['wanda', 'maximoff', 'islam', 'lihat', 'pakai', 'jilbab']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['wanda', 'maximoff', 'islam', 'lihat', 'pakai', 'jilbab']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3178,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20939</v>
+        <v>24394</v>
       </c>
       <c r="C68" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>the ritzcarlton ada nih ada yg deket fx ama plaza kuningan alias jw marriott mana asu</t>
+          <t>betul malahan tpu nya belakang rumah ikhsan lagi wkwkwkw</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['the', 'ritzcarlton', 'ada', 'nih', 'ada', 'yg', 'deket', 'fx', 'ama', 'plaza', 'kuningan', 'alias', 'jw', 'marriott', 'mana', 'asu']</t>
+          <t>['betul', 'malahan', 'tpu', 'nya', 'belakang', 'rumah', 'ikhsan', 'lagi', 'wkwkwkw']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['betul', 'malahan', 'tpu', 'nya', 'belakang', 'rumah', 'ikhsan', 'lagi', 'wkwk']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['the', 'ritzcarlton', 'deket', 'fx', 'ama', 'plaza', 'kuningan', 'alias', 'jw', 'marriott', 'asu']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['the', 'ritzcarlton', 'deket', 'fx', 'ama', 'plaza', 'kuningan', 'alias', 'jw', 'marriott', 'asu']</t>
+          <t>['tpu', 'rumah', 'ikhsan', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['tpu', 'rumah', 'ikhsan', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3219,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20940</v>
+        <v>24395</v>
       </c>
       <c r="C69" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>bocah showroom</t>
+          <t>hbd anjenggg makan luuuu jangan lupa</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['bocah', 'showroom']</t>
+          <t>['hbd', 'anjenggg', 'makan', 'luuuu', 'jangan', 'lupa']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['selamat, ulang, tahun', 'anjenggg', 'makan', 'luuuu', 'jangan', 'lupa']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['bocah', 'showroom']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['bocah', 'showroom']</t>
+          <t>['selamat, ulang, tahun', 'anjenggg', 'makan', 'luuuu', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['selamat ulang tahun', 'anjenggg', 'makan', 'luuuu', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3260,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20941</v>
+        <v>24396</v>
       </c>
       <c r="C70" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>berak sambil gosok gigi menghemat waktu yang ada di kamar mandi</t>
+          <t>dulu itu lapangan tempat gua maen bola pas pelajaran penjas waktu sd sekarang jadi tempat kuburan covidddd</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['berak', 'sambil', 'gosok', 'gigi', 'menghemat', 'waktu', 'yang', 'ada', 'di', 'kamar', 'mandi']</t>
+          <t>['dulu', 'itu', 'lapangan', 'tempat', 'gua', 'maen', 'bola', 'pas', 'pelajaran', 'penjas', 'waktu', 'sd', 'sekarang', 'jadi', 'tempat', 'kuburan', 'covidddd']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['dulu', 'itu', 'lapangan', 'tempat', 'gue', 'main', 'bola', 'pas', 'pelajaran', 'penjas', 'waktu', 'sekolah, dasar', 'sekarang', 'jadi', 'tempat', 'kuburan', 'covidddd']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['berak', 'gosok', 'gigi', 'menghemat', 'kamar', 'mandi']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['berak', 'gosok', 'gigi', 'hemat', 'kamar', 'mandi']</t>
+          <t>['lapangan', 'gue', 'main', 'bola', 'pas', 'pelajaran', 'penjas', 'sekolah, dasar', 'kuburan', 'covidddd']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['lapang', 'gue', 'main', 'bola', 'pas', 'ajar', 'jas', 'sekolah dasar', 'kubur', 'covidddd']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3301,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20942</v>
+        <v>24397</v>
       </c>
       <c r="C71" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>wkwkwkwkkww</t>
+          <t>udah mahal bikin orang sakit lagi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['wkwkwkwkkww']</t>
+          <t>['udah', 'mahal', 'bikin', 'orang', 'sakit', 'lagi']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['sudah', 'mahal', 'bikin', 'orang', 'sakit', 'lagi']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['wkwkwkwkkww']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['wkwkwkwkkww']</t>
+          <t>['mahal', 'orang', 'sakit']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['mahal', 'orang', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3342,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20943</v>
+        <v>24398</v>
       </c>
       <c r="C72" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ini anggota genk the warrior pasti</t>
+          <t>ada waktu itu orang pede banget nraktir gultik eh tau nya duit nya kurang akirnya minta bantu nambahin ke temen</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['ini', 'anggota', 'genk', 'the', 'warrior', 'pasti']</t>
+          <t>['ada', 'waktu', 'itu', 'orang', 'pede', 'banget', 'nraktir', 'gultik', 'eh', 'tau', 'nya', 'duit', 'nya', 'kurang', 'akirnya', 'minta', 'bantu', 'nambahin', 'ke', 'temen']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ada', 'waktu', 'itu', 'orang', 'percaya, diri', 'banget', 'mentraktir', 'gultik', 'eh', 'tau', 'nya', 'duit', 'nya', 'kurang', 'akhirnya', 'meminta', 'bantu', 'menambahkan', 'ke', 'teman']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['anggota', 'genk', 'the', 'warrior']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['anggota', 'genk', 'the', 'warrior']</t>
+          <t>['orang', 'percaya, diri', 'banget', 'mentraktir', 'gultik', 'eh', 'duit', 'bantu', 'teman']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['orang', 'percaya diri', 'banget', 'traktir', 'gultik', 'eh', 'duit', 'bantu', 'teman']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3383,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20944</v>
+        <v>24399</v>
       </c>
       <c r="C73" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt abis buat ini pasti dia bilang anjir keren bgt gw</t>
+          <t>serkelan nya  dicatet serkel laen dicatet perang dingin</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'abis', 'buat', 'ini', 'pasti', 'dia', 'bilang', 'anjir', 'keren', 'bgt', 'gw']</t>
+          <t>['serkelan', 'nya', 'dicatet', 'serkel', 'laen', 'dicatet', 'perang', 'dingin']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['serkelan', 'nya', 'dicatet', 'serkel', 'lain', 'dicatet', 'perang', 'dingin']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['abis', 'anjir', 'keren', 'bgt', 'gw']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['abis', 'anjir', 'keren', 'bgt', 'gw']</t>
+          <t>['serkelan', 'dicatet', 'serkel', 'dicatet', 'perang', 'dingin']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['serkelan', 'dicatet', 'serkel', 'dicatet', 'perang', 'dingin']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3424,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20945</v>
+        <v>24400</v>
       </c>
       <c r="C74" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>tarung</t>
+          <t>deket rumah gua ri ada soalnya dia jadiin kedai gitu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['tarung']</t>
+          <t>['deket', 'rumah', 'gua', 'ri', 'ada', 'soalnya', 'dia', 'jadiin', 'kedai', 'gitu']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dekat', 'rumah', 'gue', 'ri', 'ada', 'soalnya', 'dia', 'jadikan', 'kedai', 'begitu']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['tarung']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['tarung']</t>
+          <t>['rumah', 'gue', 'ri', 'jadikan', 'kedai']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['rumah', 'gue', 'ri', 'jadi', 'kedai']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3465,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20946</v>
+        <v>24401</v>
       </c>
       <c r="C75" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>betul biarkan mengalir saja</t>
+          <t>cih setiap gmeet pagi gua pake baju tidur</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['betul', 'biarkan', 'mengalir', 'saja']</t>
+          <t>['cih', 'setiap', 'gmeet', 'pagi', 'gua', 'pake', 'baju', 'tidur']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['cih', 'setiap', 'gmeet', 'pagi', 'gue', 'pakai', 'baju', 'tidur']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['biarkan', 'mengalir']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['biar', 'alir']</t>
+          <t>['cih', 'gmeet', 'pagi', 'gue', 'pakai', 'baju', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['cih', 'gmeet', 'pagi', 'gue', 'pakai', 'baju', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3506,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20947</v>
+        <v>24402</v>
       </c>
       <c r="C76" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>survive nya boleh juga</t>
+          <t>kabarin cang klo jadi kesono</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['survive', 'nya', 'boleh', 'juga']</t>
+          <t>['kabarin', 'cang', 'klo', 'jadi', 'kesono']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kabari', 'cang', 'kalau', 'jadi', 'kesono']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['survive']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['survive']</t>
+          <t>['kabari', 'cang', 'kesono']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['kabar', 'cang', 'sono']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3547,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20948</v>
+        <v>24403</v>
       </c>
       <c r="C77" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt transformasi</t>
+          <t>mao ngapain cang ikut dong wkwkwkw</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'transformasi']</t>
+          <t>['mao', 'ngapain', 'cang', 'ikut', 'dong', 'wkwkwkw']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['mau', 'apa', 'cang', 'ikut', 'dong', 'wkwk']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['transformasi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['transformasi']</t>
+          <t>['cang', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['cang', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3588,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20949</v>
+        <v>24404</v>
       </c>
       <c r="C78" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>memang btw lu lagi suka dengerin yg mana</t>
+          <t>anjir baru engeh setelah sekian lama</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['memang', 'btw', 'lu', 'lagi', 'suka', 'dengerin', 'yg', 'mana']</t>
+          <t>['anjir', 'baru', 'engeh', 'setelah', 'sekian', 'lama']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['anjir', 'baru', 'engeh', 'setelah', 'sekian', 'lama']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['btw', 'lu', 'suka', 'dengerin']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['btw', 'lu', 'suka', 'dengerin']</t>
+          <t>['anjir', 'engeh', 'sekian']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['anjir', 'engeh', 'sekian']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3629,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20950</v>
+        <v>24405</v>
       </c>
       <c r="C79" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt sub zero</t>
+          <t>rt ngeprank adik check</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'sub', 'zero']</t>
+          <t>['rt', 'ngeprank', 'adik', 'check']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'ngeprank', 'adik', 'check']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['sub', 'zero']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['sub', 'zero']</t>
+          <t>['ngeprank', 'adik', 'check']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['ngeprank', 'adik', 'check']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3670,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20951</v>
+        <v>24406</v>
       </c>
       <c r="C80" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt kemapanan intelektual</t>
+          <t>tadi malemmm begitu tuh gua wkwkwkwk</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'kemapanan', 'intelektual']</t>
+          <t>['tadi', 'malemmm', 'begitu', 'tuh', 'gua', 'wkwkwkwk']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tadi', 'malemmm', 'begitu', 'itu', 'gue', 'wkwk']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['kemapanan', 'intelektual']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['mapan', 'intelektual']</t>
+          <t>['malemmm', 'gue', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['malemmm', 'gue', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3711,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20952</v>
+        <v>24407</v>
       </c>
       <c r="C81" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>wkwkwkwkwkw</t>
+          <t>seneng bat nih bentar lagi para roaster</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwkw']</t>
+          <t>['seneng', 'bat', 'nih', 'bentar', 'lagi', 'para', 'roaster']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['senang', 'banget', 'nih', 'bentar', 'lagi', 'para', 'roaster']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwkw']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwkw']</t>
+          <t>['senang', 'banget', 'bentar', 'roaster']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['senang', 'banget', 'bentar', 'roaster']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3752,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20953</v>
+        <v>24408</v>
       </c>
       <c r="C82" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt true af yeet</t>
+          <t>yan yan</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'true', 'af', 'yeet']</t>
+          <t>['yan', 'yan']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['yan', 'yan']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['true', 'af', 'yeet']</t>
+          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['true', 'af', 'yeet']</t>
+          <t>['yan', 'yan']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['yan', 'yan']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3793,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20954</v>
+        <v>24409</v>
       </c>
       <c r="C83" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>klo buat mtk sih udah pasti gatcha</t>
+          <t>wah ajg baru engeh pantes jarang nge dm gua off in reply ig story</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['klo', 'buat', 'mtk', 'sih', 'udah', 'pasti', 'gatcha']</t>
+          <t>['wah', 'ajg', 'baru', 'engeh', 'pantes', 'jarang', 'nge', 'dm', 'gua', 'off', 'in', 'reply', 'ig', 'story']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['wah', 'anjing', 'baru', 'engeh', 'pantas', 'jarang', 'nge', 'direct, message', 'gue', 'off', 'in', 'reply', 'instagram', 'cerita']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['mtk', 'udah', 'gatcha']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['mtk', 'udah', 'gatcha']</t>
+          <t>['anjing', 'engeh', 'jarang', 'nge', 'direct, message', 'gue', 'off', 'in', 'reply', 'instagram', 'cerita']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['anjing', 'engeh', 'jarang', 'nge', 'direct message', 'gue', 'off', 'in', 'reply', 'instagram', 'cerita']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3834,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20955</v>
+        <v>24410</v>
       </c>
       <c r="C84" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ujian sekolah ajgggg</t>
+          <t>patty otniel patty</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['ujian', 'sekolah', 'ajgggg']</t>
+          <t>['patty', 'otniel', 'patty']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['patty', 'otniel', 'patty']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['ujian', 'sekolah', 'ajgggg']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['uji', 'sekolah', 'ajgggg']</t>
+          <t>['patty', 'otniel', 'patty']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['patty', 'otniel', 'patty']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3875,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20956</v>
+        <v>24411</v>
       </c>
       <c r="C85" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>uprak ukom utbk jirla rame banget</t>
+          <t>universitas vs universitas</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['uprak', 'ukom', 'utbk', 'jirla', 'rame', 'banget']</t>
+          <t>['universitas', 'vs', 'universitas']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['universitas', 'lawan', 'universitas']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['uprak', 'ukom', 'utbk', 'jirla', 'rame', 'banget']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['uprak', 'ukom', 'utbk', 'jirla', 'rame', 'banget']</t>
+          <t>['universitas', 'lawan', 'universitas']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['universitas', 'lawan', 'universitas']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3916,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20957</v>
+        <v>24412</v>
       </c>
       <c r="C86" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>mbeeeeee</t>
+          <t>makin menjadi jadiiiiii wkwkwkwk</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['mbeeeeee']</t>
+          <t>['makin', 'menjadi', 'jadiiiiii', 'wkwkwkwk']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['makin', 'menjadi', 'jadiiiiii', 'wkwk']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['mbeeeeee']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['mbeeeeee']</t>
+          <t>['jadiiiiii', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['jadiiiiii', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3957,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20958</v>
+        <v>24413</v>
       </c>
       <c r="C87" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>future trunks</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['future', 'trunks']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['future', 'trunks']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['future', 'trunks']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3571,34 +3998,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20959</v>
+        <v>24414</v>
       </c>
       <c r="C88" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>tips and trick malah bikin tambah rugi udah tau late check out bisa kena biaya tambahan wkwkwk goblok banget</t>
+          <t>kacau luhhhh</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['tips', 'and', 'trick', 'malah', 'bikin', 'tambah', 'rugi', 'udah', 'tau', 'late', 'check', 'out', 'bisa', 'kena', 'biaya', 'tambahan', 'wkwkwk', 'goblok', 'banget']</t>
+          <t>['kacau', 'luhhhh']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kacau', 'luhhhh']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['tips', 'and', 'trick', 'rugi', 'udah', 'late', 'check', 'out', 'kena', 'biaya', 'tambahan', 'wkwkwk', 'goblok', 'banget']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['tips', 'and', 'trick', 'rugi', 'udah', 'late', 'check', 'out', 'kena', 'biaya', 'tambah', 'wkwkwk', 'goblok', 'banget']</t>
+          <t>['kacau', 'luhhhh']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['kacau', 'luhhhh']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4039,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20960</v>
+        <v>24415</v>
       </c>
       <c r="C89" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>ikutan ahh haloo kak tintus dan kak april dan kak dimski</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['ikutan', 'ahh', 'haloo', 'kak', 'tintus', 'dan', 'kak', 'april', 'dan', 'kak', 'dimski']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ikutan', 'ah', 'haloo', 'kak', 'tintus', 'dan', 'kak', 'april', 'dan', 'kak', 'dimski']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ikutan', 'ah', 'haloo', 'kak', 'tintus', 'kak', 'april', 'kak', 'dimski']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['ikut', 'ah', 'haloo', 'kak', 'tintus', 'kak', 'april', 'kak', 'dimski']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4080,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20961</v>
+        <v>24416</v>
       </c>
       <c r="C90" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>gils</t>
+          <t>wkwkwkwk</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['gils']</t>
+          <t>['wkwkwkwk']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['gils']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['gils']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4121,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20962</v>
+        <v>24417</v>
       </c>
       <c r="C91" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>mana nih makro omg nya itu makro bisa ngalahin nayeon lucu aku suka dia</t>
+          <t>rt pesawat bisa terbang itu karena dibawa jin pake logika aja mana ada besi seberat ton bisa melayang di udara engineer it</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['mana', 'nih', 'makro', 'omg', 'nya', 'itu', 'makro', 'bisa', 'ngalahin', 'nayeon', 'lucu', 'aku', 'suka', 'dia']</t>
+          <t>['rt', 'pesawat', 'bisa', 'terbang', 'itu', 'karena', 'dibawa', 'jin', 'pake', 'logika', 'aja', 'mana', 'ada', 'besi', 'seberat', 'ton', 'bisa', 'melayang', 'di', 'udara', 'engineer', 'it']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'pesawat', 'bisa', 'terbang', 'itu', 'karena', 'dibawa', 'jin', 'pakai', 'logika', 'saja', 'mana', 'ada', 'besi', 'seberat', 'ton', 'bisa', 'melayang', 'di', 'udara', 'engineer', 'it']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['makro', 'omg', 'makro', 'ngalahin', 'nayeon', 'lucu', 'suka']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['makro', 'omg', 'makro', 'ngalahin', 'nayeon', 'lucu', 'suka']</t>
+          <t>['pesawat', 'terbang', 'dibawa', 'jin', 'pakai', 'logika', 'besi', 'seberat', 'ton', 'melayang', 'udara', 'engineer', 'it']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['pesawat', 'terbang', 'bawa', 'jin', 'pakai', 'logika', 'besi', 'berat', 'ton', 'layang', 'udara', 'engineer', 'it']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4162,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20963</v>
+        <v>24418</v>
       </c>
       <c r="C92" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>boleh juga wkwkwkw</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['boleh', 'juga', 'wkwkwkw']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['boleh', 'juga', 'wkwk']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4203,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20964</v>
+        <v>24419</v>
       </c>
       <c r="C93" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>bobotoh geulis</t>
+          <t>udah diinstal kah wkwkk</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['bobotoh', 'geulis']</t>
+          <t>['udah', 'diinstal', 'kah', 'wkwkk']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sudah', 'diinstal', 'kah', 'wkwk']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['bobotoh', 'geulis']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['bobotoh', 'geulis']</t>
+          <t>['diinstal', 'kah', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['diinstal', 'kah', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4244,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20965</v>
+        <v>24420</v>
       </c>
       <c r="C94" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>bentaran bat anjir</t>
+          <t>mulut nya kebiasaan</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['bentaran', 'bat', 'anjir']</t>
+          <t>['mulut', 'nya', 'kebiasaan']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['mulut', 'nya', 'kebiasaan']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['bentaran', 'bat', 'anjir']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['bentar', 'bat', 'anjir']</t>
+          <t>['mulut', 'kebiasaan']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['mulut', 'biasa']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4285,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20966</v>
+        <v>24421</v>
       </c>
       <c r="C95" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>akwkakwka</t>
+          <t>wkwkwk ngandelin majin buu lawan freeza</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['akwkakwka']</t>
+          <t>['wkwkwk', 'ngandelin', 'majin', 'buu', 'lawan', 'freeza']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['wkwk', 'ngandelin', 'majin', 'buu', 'lawan', 'freeza']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['akwkakwka']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['akwkakwka']</t>
+          <t>['wkwk', 'ngandelin', 'majin', 'buu', 'lawan', 'freeza']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['wkwk', 'ngandelin', 'majin', 'buu', 'lawan', 'freeza']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4326,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20967</v>
+        <v>24422</v>
       </c>
       <c r="C96" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>kalo sampe bos bertindak abis dia yan</t>
+          <t>freeza bangkittttt</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['kalo', 'sampe', 'bos', 'bertindak', 'abis', 'dia', 'yan']</t>
+          <t>['freeza', 'bangkittttt']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['freeza', 'bangkittttt']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['sampe', 'bos', 'bertindak', 'abis', 'yan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['sampe', 'bos', 'tindak', 'abis', 'yan']</t>
+          <t>['freeza', 'bangkittttt']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['freeza', 'bangkittttt']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4367,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20968</v>
+        <v>24423</v>
       </c>
       <c r="C97" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>anda belajar jurus kage bunshin ke naruto uzumaki kah alias sehat selalu ya indy ratnaaaaa</t>
+          <t>lanjut marathon dbs</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['anda', 'belajar', 'jurus', 'kage', 'bunshin', 'ke', 'naruto', 'uzumaki', 'kah', 'alias', 'sehat', 'selalu', 'ya', 'indy', 'ratnaaaaa']</t>
+          <t>['lanjut', 'marathon', 'dbs']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['lanjut', 'marathon', 'dbs']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['belajar', 'jurus', 'kage', 'bunshin', 'naruto', 'uzumaki', 'kah', 'alias', 'sehat', 'indy', 'ratnaaaaa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['ajar', 'jurus', 'kage', 'bunshin', 'naruto', 'uzumaki', 'kah', 'alias', 'sehat', 'indy', 'ratnaaaaa']</t>
+          <t>['marathon', 'dbs']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['marathon', 'dbs']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4408,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20969</v>
+        <v>24424</v>
       </c>
       <c r="C98" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>lah gagalmemuat twit masa glo</t>
+          <t>percaya klo dia jot cc</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['lah', 'gagalmemuat', 'twit', 'masa', 'glo']</t>
+          <t>['percaya', 'klo', 'dia', 'jot', 'cc']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['percaya', 'kalau', 'dia', 'jot', 'cc']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['gagalmemuat', 'twit', 'glo']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['gagalmemuat', 'twit', 'glo']</t>
+          <t>['percaya', 'jot', 'cc']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['percaya', 'jot', 'cc']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4449,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20970</v>
+        <v>24425</v>
       </c>
       <c r="C99" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>untuk</t>
+          <t>rt jkt loyalitas itu bernama ismed sofyan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['untuk']</t>
+          <t>['rt', 'jkt', 'loyalitas', 'itu', 'bernama', 'ismed', 'sofyan']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'loyalitas', 'itu', 'bernama', 'ismed', 'sofyan']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jakarta', 'loyalitas', 'bernama', 'ismed', 'sofyan']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['jakarta', 'loyalitas', 'nama', 'ismed', 'sofyan']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4490,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20971</v>
+        <v>24426</v>
       </c>
       <c r="C100" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>oalaaas yg inii ini mah pernah di share sendiri ama ybs kan</t>
+          <t>awkaowkakwo</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['oalaaas', 'yg', 'inii', 'ini', 'mah', 'pernah', 'di', 'share', 'sendiri', 'ama', 'ybs', 'kan']</t>
+          <t>['awkaowkakwo']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['awkaowkakwo']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['oalaaas', 'inii', 'mah', 'share', 'ama', 'ybs']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['oalaaas', 'ini', 'mah', 'share', 'ama', 'ybs']</t>
+          <t>['awkaowkakwo']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['awkaowkakwo']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4531,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20972</v>
+        <v>24427</v>
       </c>
       <c r="C101" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ini sampai temanteman saya belon pada login to mtk terpaksa saya mengasal sajah</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['ini', 'sampai', 'temanteman', 'saya', 'belon', 'pada', 'login', 'to', 'mtk', 'terpaksa', 'saya', 'mengasal', 'sajah']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['temanteman', 'belon', 'login', 'to', 'mtk', 'terpaksa', 'mengasal', 'sajah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['temanteman', 'belon', 'login', 'to', 'mtk', 'paksa', 'asal', 'sajah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
